--- a/medicine/Psychotrope/Karuizawa_(distillerie)/Karuizawa_(distillerie).xlsx
+++ b/medicine/Psychotrope/Karuizawa_(distillerie)/Karuizawa_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Karuizawa (軽井沢町 en japonais) est une distillerie située dans la région de Chūbu au Japon.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Située au pied du Mont Asama, un volcan encore actif, la distillerie se trouve à 850 m d’altitude, la plus élevée au Japon. Ce single malt tire toute sa spécificité de son eau filtrée à travers de la lave et à des conditions climatologiques particulières. L’orge utilisée est de la variété la plus recherchée, la Golden Promise et provient essentiellement d’Espagne[1].
-Principalement vieillis en fûts de sherry, les whiskies produits à Karuizawa sont aujourd’hui très recherchés depuis que la distillerie a officiellement cessé de produire en 2000. Mercian fut racheté par Kirin en 2007, et les stocks restant à Karuizawa ont été rachetés en 2011 par Number One Drinks Company (pour le compte d’une société asiatique), puis déplacés à Chichibu[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Située au pied du Mont Asama, un volcan encore actif, la distillerie se trouve à 850 m d’altitude, la plus élevée au Japon. Ce single malt tire toute sa spécificité de son eau filtrée à travers de la lave et à des conditions climatologiques particulières. L’orge utilisée est de la variété la plus recherchée, la Golden Promise et provient essentiellement d’Espagne.
+Principalement vieillis en fûts de sherry, les whiskies produits à Karuizawa sont aujourd’hui très recherchés depuis que la distillerie a officiellement cessé de produire en 2000. Mercian fut racheté par Kirin en 2007, et les stocks restant à Karuizawa ont été rachetés en 2011 par Number One Drinks Company (pour le compte d’une société asiatique), puis déplacés à Chichibu.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les produits sont uniquement des single malt.
 Karuizawa 1960 53 ans 53.2%
